--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3762.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3762.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.283246253629402</v>
+        <v>0.5082618594169617</v>
       </c>
       <c r="B1">
-        <v>2.6053346295728</v>
+        <v>1.803717970848083</v>
       </c>
       <c r="C1">
-        <v>3.810132671386143</v>
+        <v>5.891898632049561</v>
       </c>
       <c r="D1">
-        <v>3.821419680850088</v>
+        <v>1.581515431404114</v>
       </c>
       <c r="E1">
-        <v>1.126236983112115</v>
+        <v>0.8052790760993958</v>
       </c>
     </row>
   </sheetData>
